--- a/Audit 3/Projektplan_Entwicklungsprojekt_Grimmeisen_Hachicha_.xlsx
+++ b/Audit 3/Projektplan_Entwicklungsprojekt_Grimmeisen_Hachicha_.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E63A225-55D0-46E7-9567-5A86CB8E98C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F870ECB-DC54-4084-9EDC-C941B3100780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2965,9 +2965,9 @@
   </sheetPr>
   <dimension ref="A1:DN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X32" sqref="X32"/>
+      <selection pane="bottomLeft" activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6619,7 +6619,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="86">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E28" s="87">
         <v>43833</v>
